--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="156">
   <si>
     <t>Firma</t>
   </si>
@@ -463,6 +463,33 @@
   </si>
   <si>
     <t>Sponsoring abgeschlossen bis 20.Juni.2015</t>
+  </si>
+  <si>
+    <t>Mörtenbäck</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>ACS Gagstädter</t>
+  </si>
+  <si>
+    <t>EW-Bau</t>
+  </si>
+  <si>
+    <t>GCA Golfclub</t>
+  </si>
+  <si>
+    <t>WRS Generalunternehmer</t>
+  </si>
+  <si>
+    <t>VKB-Bank</t>
+  </si>
+  <si>
+    <t>Elektro-Thaler</t>
+  </si>
+  <si>
+    <t>BT-Bau</t>
   </si>
 </sst>
 </file>
@@ -693,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,9 +760,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -981,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,7 +1270,7 @@
       <c r="FJ7" s="10"/>
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1260,7 +1287,7 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1277,7 +1304,7 @@
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1294,7 +1321,7 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1311,7 +1338,7 @@
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1328,7 +1355,7 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -1345,7 +1372,7 @@
       <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1362,11 +1389,11 @@
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C15" s="14">
         <v>50</v>
@@ -1379,7 +1406,7 @@
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1396,7 +1423,7 @@
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1413,7 +1440,7 @@
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -1430,8 +1457,8 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>98</v>
+      <c r="A19" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>15</v>
@@ -1447,7 +1474,7 @@
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -1464,7 +1491,7 @@
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -1481,8 +1508,8 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>98</v>
+      <c r="A22" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>18</v>
@@ -1498,8 +1525,8 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>64</v>
+      <c r="A23" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>20</v>
@@ -1515,7 +1542,7 @@
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -1532,7 +1559,7 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -1549,8 +1576,8 @@
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>98</v>
+      <c r="A26" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>21</v>
@@ -1566,7 +1593,7 @@
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -1583,8 +1610,8 @@
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>78</v>
+      <c r="A28" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>26</v>
@@ -1600,7 +1627,7 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -1617,7 +1644,7 @@
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -1633,7 +1660,7 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -1651,7 +1678,7 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -1668,8 +1695,8 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>98</v>
+      <c r="A33" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>28</v>
@@ -1685,8 +1712,8 @@
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>64</v>
+      <c r="A34" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>32</v>
@@ -1702,7 +1729,7 @@
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -1719,8 +1746,8 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>64</v>
+      <c r="A36" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>115</v>
@@ -1735,10 +1762,8 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>64</v>
-      </c>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>38</v>
       </c>
@@ -1753,7 +1778,7 @@
       <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -1770,7 +1795,7 @@
       <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="16" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -1787,7 +1812,7 @@
       <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -1804,8 +1829,8 @@
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>123</v>
+      <c r="A41" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>58</v>
@@ -1821,7 +1846,7 @@
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -1838,7 +1863,7 @@
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -1855,7 +1880,7 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -1872,7 +1897,7 @@
       <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -1889,8 +1914,8 @@
       <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>98</v>
+      <c r="A46" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>99</v>
@@ -1906,8 +1931,8 @@
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>98</v>
+      <c r="A47" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>101</v>
@@ -1923,7 +1948,7 @@
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -1940,7 +1965,7 @@
       <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -1957,7 +1982,7 @@
       <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -1974,7 +1999,7 @@
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -1991,8 +2016,8 @@
       <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>96</v>
+      <c r="A52" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>139</v>
@@ -2008,8 +2033,12 @@
       <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="C53" s="14"/>
       <c r="D53" s="24"/>
       <c r="E53" s="20"/>
@@ -2019,8 +2048,12 @@
       <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="C54" s="14"/>
       <c r="D54" s="24"/>
       <c r="E54" s="20"/>
@@ -2030,8 +2063,12 @@
       <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="24"/>
       <c r="E55" s="20"/>
@@ -2041,8 +2078,12 @@
       <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="C56" s="14"/>
       <c r="D56" s="24"/>
       <c r="E56" s="20"/>
@@ -2052,8 +2093,12 @@
       <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="24"/>
       <c r="E57" s="20"/>
@@ -2063,8 +2108,12 @@
       <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="C58" s="14"/>
       <c r="D58" s="24"/>
       <c r="E58" s="20"/>
@@ -2074,8 +2123,12 @@
       <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="C59" s="14"/>
       <c r="D59" s="24"/>
       <c r="E59" s="20"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -497,8 +497,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -627,18 +627,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,10 +650,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -672,30 +672,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -720,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -760,9 +760,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,7 +797,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1008,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="158">
   <si>
     <t>Firma</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>BT-Bau</t>
+  </si>
+  <si>
+    <t>3-Tages-Werbung (inkl. Nassbewerb+Kfz-Segnung) ab € 100,00</t>
+  </si>
+  <si>
+    <t>Abholung in der Woche vorm Fest; inkl. NB. und Kfz-Segnung</t>
   </si>
 </sst>
 </file>
@@ -497,8 +503,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -623,22 +629,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,10 +656,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -672,31 +678,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1008,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1025,7 @@
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
@@ -1038,7 +1045,9 @@
       <c r="D2" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="H2" s="23" t="s">
         <v>80</v>
       </c>
@@ -1065,7 +1074,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>2390</v>
+        <v>250</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1270,15 +1279,13 @@
       <c r="FJ7" s="10"/>
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
-        <v>70</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="24"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -1287,15 +1294,13 @@
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14">
-        <v>50</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="24"/>
       <c r="E9" s="35"/>
       <c r="F9" s="20"/>
@@ -1304,49 +1309,59 @@
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="29">
         <v>100</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="14">
-        <v>100</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="29">
+        <v>150</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14">
-        <v>50</v>
-      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="35"/>
       <c r="F12" s="20"/>
@@ -1355,15 +1370,13 @@
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14">
-        <v>70</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -1372,15 +1385,13 @@
       <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="14">
-        <v>70</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="35"/>
       <c r="F14" s="20"/>
@@ -1389,15 +1400,13 @@
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="14">
-        <v>50</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="35"/>
       <c r="F15" s="20"/>
@@ -1406,15 +1415,13 @@
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="14">
-        <v>70</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="35"/>
       <c r="F16" s="20"/>
@@ -1423,15 +1430,13 @@
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="24"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1440,15 +1445,13 @@
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14">
-        <v>70</v>
-      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="24"/>
       <c r="E18" s="35"/>
       <c r="F18" s="20"/>
@@ -1457,15 +1460,13 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="24"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -1474,15 +1475,13 @@
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="14">
-        <v>100</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="24"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -1491,15 +1490,13 @@
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="14">
-        <v>50</v>
-      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="24"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -1508,15 +1505,13 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
-        <v>50</v>
-      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="24"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -1525,15 +1520,13 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>140</v>
-      </c>
+      <c r="C23" s="27"/>
       <c r="D23" s="24"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -1542,15 +1535,13 @@
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14">
-        <v>50</v>
-      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="24"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -1559,15 +1550,13 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="14">
-        <v>70</v>
-      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="24"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -1576,15 +1565,13 @@
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="24"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -1593,15 +1580,13 @@
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="14">
-        <v>50</v>
-      </c>
+      <c r="C27" s="14"/>
       <c r="D27" s="24"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -1610,15 +1595,13 @@
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="14">
-        <v>50</v>
-      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="24"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -1627,15 +1610,13 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="15">
-        <v>50</v>
-      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="24"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -1644,15 +1625,13 @@
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="14">
-        <v>100</v>
-      </c>
+      <c r="C30" s="14"/>
       <c r="D30" s="24"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -1667,9 +1646,7 @@
       <c r="B31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C31" s="14"/>
       <c r="D31" s="24"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -1678,15 +1655,13 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14">
-        <v>150</v>
-      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="24"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -1695,15 +1670,13 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C33" s="14"/>
       <c r="D33" s="24"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -1712,15 +1685,13 @@
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C34" s="14"/>
       <c r="D34" s="24"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -1729,15 +1700,13 @@
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="C35" s="14"/>
       <c r="D35" s="24"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -1746,15 +1715,13 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="20" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="14">
-        <v>100</v>
-      </c>
+      <c r="C36" s="14"/>
       <c r="D36" s="24"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -1767,9 +1734,7 @@
       <c r="B37" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="24"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
@@ -1778,15 +1743,13 @@
       <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="14">
-        <v>100</v>
-      </c>
+      <c r="C38" s="14"/>
       <c r="D38" s="24"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -1795,15 +1758,13 @@
       <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="14">
-        <v>100</v>
-      </c>
+      <c r="C39" s="14"/>
       <c r="D39" s="24"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1812,15 +1773,13 @@
       <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="20" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C40" s="14"/>
       <c r="D40" s="24"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -1829,15 +1788,13 @@
       <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="14">
-        <v>50</v>
-      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="24"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -1846,15 +1803,13 @@
       <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="14">
-        <v>50</v>
-      </c>
+      <c r="C42" s="14"/>
       <c r="D42" s="24"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1863,15 +1818,13 @@
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C43" s="14"/>
       <c r="D43" s="24"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -1880,15 +1833,13 @@
       <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="14">
-        <v>70</v>
-      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="24"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -1897,15 +1848,13 @@
       <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="C45" s="14"/>
       <c r="D45" s="24"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1914,15 +1863,13 @@
       <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="14">
-        <v>70</v>
-      </c>
+      <c r="C46" s="14"/>
       <c r="D46" s="24"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -1931,15 +1878,13 @@
       <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="14">
-        <v>30</v>
-      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="24"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -1948,15 +1893,13 @@
       <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="14">
-        <v>50</v>
-      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="24"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1965,15 +1908,13 @@
       <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="14">
-        <v>100</v>
-      </c>
+      <c r="C49" s="14"/>
       <c r="D49" s="24"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -1982,15 +1923,13 @@
       <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="14">
-        <v>50</v>
-      </c>
+      <c r="C50" s="14"/>
       <c r="D50" s="24"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -1999,15 +1938,13 @@
       <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="14">
-        <v>100</v>
-      </c>
+      <c r="C51" s="14"/>
       <c r="D51" s="24"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2016,15 +1953,13 @@
       <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="14">
-        <v>100</v>
-      </c>
+      <c r="C52" s="14"/>
       <c r="D52" s="24"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -2033,7 +1968,7 @@
       <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -2048,7 +1983,7 @@
       <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -2063,7 +1998,7 @@
       <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -2078,7 +2013,7 @@
       <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -2093,7 +2028,7 @@
       <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -2108,7 +2043,7 @@
       <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -2123,7 +2058,7 @@
       <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -2397,7 +2332,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="159">
   <si>
     <t>Firma</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Abholung in der Woche vorm Fest; inkl. NB. und Kfz-Segnung</t>
+  </si>
+  <si>
+    <t>Mercedes Braher</t>
   </si>
 </sst>
 </file>
@@ -727,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -767,9 +770,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,7 +807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1077,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1807,7 +1810,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="24"/>
@@ -1929,7 +1932,9 @@
       <c r="B50" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="14"/>
+      <c r="C50" s="29">
+        <v>100</v>
+      </c>
       <c r="D50" s="24"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="161">
   <si>
     <t>Firma</t>
   </si>
@@ -499,6 +499,12 @@
   </si>
   <si>
     <t>Mercedes Braher</t>
+  </si>
+  <si>
+    <t>Mega Kebab St. Georgen</t>
+  </si>
+  <si>
+    <t>Abwicklung übernimmt Schwaiger Manuel</t>
   </si>
 </sst>
 </file>
@@ -730,9 +736,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,9 +776,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +848,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1083,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -2078,11 +2084,19 @@
       <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="14"/>
+      <c r="A60" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="29">
+        <v>150</v>
+      </c>
       <c r="D60" s="24"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="163">
   <si>
     <t>Firma</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>Abwicklung übernimmt Schwaiger Manuel</t>
+  </si>
+  <si>
+    <t>Transparentwerbung + Dankesrede</t>
+  </si>
+  <si>
+    <t>offen</t>
   </si>
 </sst>
 </file>
@@ -736,9 +742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -776,9 +782,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,7 +1031,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1089,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1294,12 +1300,22 @@
       <c r="B8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="28">
+        <v>100</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
@@ -1923,7 +1939,9 @@
       <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="14"/>
+      <c r="C49" s="29">
+        <v>100</v>
+      </c>
       <c r="D49" s="24"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -1970,7 +1988,9 @@
       <c r="B52" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="14"/>
+      <c r="C52" s="29">
+        <v>100</v>
+      </c>
       <c r="D52" s="24"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="164">
   <si>
     <t>Firma</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>offen</t>
+  </si>
+  <si>
+    <t>Anlieferung OK, Abfuhr durch Traktoren der Kameraden</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -719,6 +722,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1030,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1454,15 +1460,19 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -1536,9 +1546,13 @@
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="29">
+        <v>100</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -1924,7 +1938,9 @@
       <c r="B48" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="29">
+        <v>70</v>
+      </c>
       <c r="D48" s="24"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="164">
   <si>
     <t>Firma</t>
   </si>
@@ -748,9 +748,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,9 +788,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>970</v>
+        <v>1070</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1392,12 +1392,18 @@
       <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="28">
+        <v>100</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="35"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>162</v>
+      </c>
       <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="167">
   <si>
     <t>Firma</t>
   </si>
@@ -504,9 +504,6 @@
     <t>Mega Kebab St. Georgen</t>
   </si>
   <si>
-    <t>Abwicklung übernimmt Schwaiger Manuel</t>
-  </si>
-  <si>
     <t>Transparentwerbung + Dankesrede</t>
   </si>
   <si>
@@ -514,6 +511,18 @@
   </si>
   <si>
     <t>Anlieferung OK, Abfuhr durch Traktoren der Kameraden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar </t>
+  </si>
+  <si>
+    <t>Stein &amp; Co Holding GmbH</t>
+  </si>
+  <si>
+    <t>Hofer (Elektrohändler Ried)</t>
+  </si>
+  <si>
+    <t>Abholung in der Woche vorm Fest</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1046,7 @@
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1070</v>
+        <v>1420</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1310,7 +1319,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>157</v>
@@ -1320,7 +1329,7 @@
         <v>104</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -1331,12 +1340,22 @@
       <c r="B9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="28">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>157</v>
+      </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
@@ -1402,7 +1421,7 @@
         <v>104</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I12" s="20"/>
     </row>
@@ -1474,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>2</v>
@@ -1631,12 +1650,22 @@
       <c r="B27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="20"/>
+      <c r="C27" s="28">
+        <v>50</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1646,12 +1675,22 @@
       <c r="B28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="20"/>
+      <c r="C28" s="28">
+        <v>50</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,9 +2174,11 @@
       <c r="C60" s="29">
         <v>150</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="E60" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
@@ -2145,25 +2186,49 @@
       <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="20"/>
+      <c r="A61" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="14">
+        <v>100</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="20"/>
+      <c r="A62" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="28">
+        <v>50</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="G62" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3561,7 +3626,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4148,7 +4213,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="172">
   <si>
     <t>Firma</t>
   </si>
@@ -480,9 +480,6 @@
     <t>GCA Golfclub</t>
   </si>
   <si>
-    <t>WRS Generalunternehmer</t>
-  </si>
-  <si>
     <t>VKB-Bank</t>
   </si>
   <si>
@@ -523,6 +520,24 @@
   </si>
   <si>
     <t>Abholung in der Woche vorm Fest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>bereits abgeholt</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ÜW</t>
+  </si>
+  <si>
+    <t>Kärtchen zum Auflegen</t>
   </si>
 </sst>
 </file>
@@ -635,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,11 +667,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -728,11 +758,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,10 +1123,1319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="35"/>
+    <col min="7" max="7" width="18.5703125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="44"/>
+      <c r="G3" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="48">
+        <f>SUM(C8:C91)</f>
+        <v>2240</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="44"/>
+      <c r="G4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="35"/>
+      <c r="I5" s="50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54">
+        <v>100</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="54">
+        <v>100</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="56">
+        <v>100</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="54">
+        <v>150</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="54">
+        <v>100</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="57">
+        <v>70</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="57">
+        <v>50</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="56">
+        <v>100</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="56">
+        <v>100</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="56">
+        <v>100</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="54">
+        <v>50</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="54">
+        <v>50</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="44"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="56">
+        <v>100</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="54">
+        <v>100</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="57"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="57"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="57">
+        <v>50</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="56">
+        <v>70</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="56">
+        <v>100</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="56">
+        <v>100</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="57">
+        <v>100</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="56">
+        <v>100</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="54">
+        <v>100</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="57"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="54">
+        <v>150</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="57">
+        <v>100</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="54">
+        <v>50</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="54">
+        <v>50</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" s="44"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="62"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="62"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="62"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="62"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="62"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="62"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="62"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="62"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="62"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="62"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="62"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="62"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="62"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="62"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="62"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="62"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="62"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="62"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="62"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="62"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="62"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="62"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="62"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="62"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A97"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,7 +2444,7 @@
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
@@ -1063,21 +2452,19 @@
   <sheetData>
     <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>156</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="H2" s="23" t="s">
         <v>80</v>
       </c>
@@ -1104,7 +2491,7 @@
       </c>
       <c r="C4" s="26">
         <f>SUM(C8:C93)</f>
-        <v>1420</v>
+        <v>2390</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
@@ -1312,1416 +2699,6 @@
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28">
-        <v>100</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="28">
-        <v>100</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="29">
-        <v>100</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="29">
-        <v>150</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="28">
-        <v>100</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="29">
-        <v>100</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="28">
-        <v>50</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="28">
-        <v>50</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="29">
-        <v>70</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="29">
-        <v>100</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="29">
-        <v>100</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="29">
-        <v>100</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="29">
-        <v>150</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="14">
-        <v>100</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C62" s="28">
-        <v>50</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="7"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A99"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FJ99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="H2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20"/>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="26">
-        <f>SUM(C8:C93)</f>
-        <v>2390</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="20"/>
-      <c r="G4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="18"/>
-      <c r="I5" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10"/>
-      <c r="BX7" s="10"/>
-      <c r="BY7" s="10"/>
-      <c r="BZ7" s="10"/>
-      <c r="CA7" s="10"/>
-      <c r="CB7" s="10"/>
-      <c r="CC7" s="10"/>
-      <c r="CD7" s="10"/>
-      <c r="CE7" s="10"/>
-      <c r="CF7" s="10"/>
-      <c r="CG7" s="10"/>
-      <c r="CH7" s="10"/>
-      <c r="CI7" s="10"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
-      <c r="CL7" s="10"/>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="10"/>
-      <c r="CO7" s="10"/>
-      <c r="CP7" s="10"/>
-      <c r="CQ7" s="10"/>
-      <c r="CR7" s="10"/>
-      <c r="CS7" s="10"/>
-      <c r="CT7" s="10"/>
-      <c r="CU7" s="10"/>
-      <c r="CV7" s="10"/>
-      <c r="CW7" s="10"/>
-      <c r="CX7" s="10"/>
-      <c r="CY7" s="10"/>
-      <c r="CZ7" s="10"/>
-      <c r="DA7" s="10"/>
-      <c r="DB7" s="10"/>
-      <c r="DC7" s="10"/>
-      <c r="DD7" s="10"/>
-      <c r="DE7" s="10"/>
-      <c r="DF7" s="10"/>
-      <c r="DG7" s="10"/>
-      <c r="DH7" s="10"/>
-      <c r="DI7" s="10"/>
-      <c r="DJ7" s="10"/>
-      <c r="DK7" s="10"/>
-      <c r="DL7" s="10"/>
-      <c r="DM7" s="10"/>
-      <c r="DN7" s="10"/>
-      <c r="DO7" s="10"/>
-      <c r="DP7" s="10"/>
-      <c r="DQ7" s="10"/>
-      <c r="DR7" s="10"/>
-      <c r="DS7" s="10"/>
-      <c r="DT7" s="10"/>
-      <c r="DU7" s="10"/>
-      <c r="DV7" s="10"/>
-      <c r="DW7" s="10"/>
-      <c r="DX7" s="10"/>
-      <c r="DY7" s="10"/>
-      <c r="DZ7" s="10"/>
-      <c r="EA7" s="10"/>
-      <c r="EB7" s="10"/>
-      <c r="EC7" s="10"/>
-      <c r="ED7" s="10"/>
-      <c r="EE7" s="10"/>
-      <c r="EF7" s="10"/>
-      <c r="EG7" s="10"/>
-      <c r="EH7" s="10"/>
-      <c r="EI7" s="10"/>
-      <c r="EJ7" s="10"/>
-      <c r="EK7" s="10"/>
-      <c r="EL7" s="10"/>
-      <c r="EM7" s="10"/>
-      <c r="EN7" s="10"/>
-      <c r="EO7" s="10"/>
-      <c r="EP7" s="10"/>
-      <c r="EQ7" s="10"/>
-      <c r="ER7" s="10"/>
-      <c r="ES7" s="10"/>
-      <c r="ET7" s="10"/>
-      <c r="EU7" s="10"/>
-      <c r="EV7" s="10"/>
-      <c r="EW7" s="10"/>
-      <c r="EX7" s="10"/>
-      <c r="EY7" s="10"/>
-      <c r="EZ7" s="10"/>
-      <c r="FA7" s="10"/>
-      <c r="FB7" s="10"/>
-      <c r="FC7" s="10"/>
-      <c r="FD7" s="10"/>
-      <c r="FE7" s="10"/>
-      <c r="FF7" s="10"/>
-      <c r="FG7" s="10"/>
-      <c r="FH7" s="10"/>
-      <c r="FI7" s="10"/>
-      <c r="FJ7" s="10"/>
-    </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>50</v>
-      </c>
       <c r="B8" s="32" t="s">
         <v>1</v>
       </c>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,12 +17,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$97</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="175">
   <si>
     <t>Firma</t>
   </si>
@@ -538,17 +538,26 @@
   </si>
   <si>
     <t>Kärtchen zum Auflegen</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Nächstes Jahr vielleicht wieder</t>
+  </si>
+  <si>
+    <t>Fotos vom aufgehängen Transparent notwendig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,9 +846,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -877,9 +886,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,10 +920,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,10 +954,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1122,14 +1129,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="35" customWidth="1"/>
@@ -1143,14 +1150,14 @@
     <col min="10" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="26.25">
       <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C1" s="37"/>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="B2" s="35" t="s">
         <v>146</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="D3" s="45"/>
@@ -1179,14 +1186,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="44"/>
       <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48">
         <f>SUM(C8:C91)</f>
-        <v>2240</v>
+        <v>4780</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="44"/>
@@ -1197,18 +1204,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="C5" s="35"/>
       <c r="I5" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="H6" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="35" t="s">
         <v>49</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
@@ -1256,7 +1263,7 @@
       </c>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="44" t="s">
         <v>50</v>
       </c>
@@ -1281,7 +1288,7 @@
       </c>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="44" t="s">
         <v>50</v>
       </c>
@@ -1304,7 +1311,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="44" t="s">
         <v>50</v>
       </c>
@@ -1327,7 +1334,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="44" t="s">
         <v>50</v>
       </c>
@@ -1348,7 +1355,7 @@
       </c>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="44" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1370,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="44" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1385,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="44" t="s">
         <v>51</v>
       </c>
@@ -1393,7 +1400,7 @@
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="44" t="s">
         <v>51</v>
       </c>
@@ -1408,7 +1415,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" s="44" t="s">
         <v>97</v>
       </c>
@@ -1427,7 +1434,7 @@
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="44" t="s">
         <v>97</v>
       </c>
@@ -1444,7 +1451,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="44" t="s">
         <v>63</v>
       </c>
@@ -1461,7 +1468,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
@@ -1478,7 +1485,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -1497,7 +1504,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="44" t="s">
         <v>97</v>
       </c>
@@ -1516,7 +1523,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="44" t="s">
         <v>148</v>
       </c>
@@ -1537,7 +1544,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="44" t="s">
         <v>123</v>
       </c>
@@ -1558,7 +1565,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="44" t="s">
         <v>123</v>
       </c>
@@ -1579,7 +1586,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="44" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1601,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="44" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1626,7 @@
       </c>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="44" t="s">
         <v>50</v>
       </c>
@@ -1644,14 +1651,16 @@
       </c>
       <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="60" t="s">
+        <v>142</v>
+      </c>
       <c r="D29" s="45"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -1659,29 +1668,35 @@
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>173</v>
+      </c>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>166</v>
+      </c>
       <c r="D31" s="45"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
@@ -1689,7 +1704,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="44" t="s">
         <v>97</v>
       </c>
@@ -1704,7 +1719,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="44" t="s">
         <v>96</v>
       </c>
@@ -1721,14 +1736,16 @@
       <c r="H33" s="61"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="57" t="s">
+        <v>166</v>
+      </c>
       <c r="D34" s="45"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -1736,7 +1753,7 @@
       <c r="H34" s="61"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -1751,7 +1768,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="44"/>
       <c r="B36" s="44" t="s">
         <v>38</v>
@@ -1764,7 +1781,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="44" t="s">
         <v>63</v>
       </c>
@@ -1783,7 +1800,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
         <v>96</v>
       </c>
@@ -1797,16 +1814,16 @@
         <v>166</v>
       </c>
       <c r="E38" s="44"/>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="44"/>
+      <c r="G38" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="H38" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="44" t="s">
         <v>60</v>
       </c>
@@ -1821,7 +1838,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="44" t="s">
         <v>51</v>
       </c>
@@ -1836,14 +1853,16 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="D41" s="45"/>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
@@ -1851,7 +1870,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="44" t="s">
         <v>63</v>
       </c>
@@ -1866,29 +1885,43 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="44"/>
+      <c r="C43" s="54">
+        <v>100</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>156</v>
+      </c>
       <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="57" t="s">
+        <v>166</v>
+      </c>
       <c r="D44" s="45"/>
       <c r="E44" s="44"/>
       <c r="F44" s="44"/>
@@ -1896,7 +1929,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="44" t="s">
         <v>96</v>
       </c>
@@ -1910,16 +1943,16 @@
         <v>2</v>
       </c>
       <c r="E45" s="44"/>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="44"/>
+      <c r="G45" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="H45" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="44"/>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="44" t="s">
         <v>97</v>
       </c>
@@ -1934,7 +1967,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="44" t="s">
         <v>97</v>
       </c>
@@ -1951,7 +1984,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="44" t="s">
         <v>69</v>
       </c>
@@ -1968,7 +2001,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="44" t="s">
         <v>78</v>
       </c>
@@ -1976,16 +2009,24 @@
         <v>132</v>
       </c>
       <c r="C49" s="56">
-        <v>100</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="44"/>
+        <v>150</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>156</v>
+      </c>
       <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>160</v>
+      </c>
       <c r="I49" s="44"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="44" t="s">
         <v>123</v>
       </c>
@@ -2006,7 +2047,7 @@
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="44" t="s">
         <v>69</v>
       </c>
@@ -2023,7 +2064,7 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="44" t="s">
         <v>96</v>
       </c>
@@ -2037,16 +2078,16 @@
         <v>166</v>
       </c>
       <c r="E52" s="44"/>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="44"/>
+      <c r="G52" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="44" t="s">
+      <c r="H52" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="H52" s="44"/>
       <c r="I52" s="44"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="44" t="s">
         <v>51</v>
       </c>
@@ -2061,7 +2102,7 @@
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="44" t="s">
         <v>51</v>
       </c>
@@ -2076,7 +2117,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="44" t="s">
         <v>51</v>
       </c>
@@ -2091,7 +2132,7 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="44" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2147,7 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="44" t="s">
         <v>148</v>
       </c>
@@ -2123,7 +2164,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="44" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2189,7 @@
       </c>
       <c r="I58" s="44"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="44" t="s">
         <v>97</v>
       </c>
@@ -2169,7 +2210,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="44" t="s">
         <v>50</v>
       </c>
@@ -2194,7 +2235,7 @@
       </c>
       <c r="I60" s="44"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="44" t="s">
         <v>50</v>
       </c>
@@ -2219,7 +2260,7 @@
       </c>
       <c r="I61" s="44"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="57"/>
@@ -2230,7 +2271,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="57"/>
@@ -2241,10 +2282,13 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
-      <c r="C64" s="57"/>
+      <c r="C64" s="57">
+        <f>SUM(C8:C63)</f>
+        <v>2390</v>
+      </c>
       <c r="D64" s="45"/>
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
@@ -2252,7 +2296,7 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="57"/>
@@ -2263,7 +2307,7 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="57"/>
@@ -2274,7 +2318,7 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="57"/>
@@ -2285,7 +2329,7 @@
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="57"/>
@@ -2296,7 +2340,7 @@
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="57"/>
@@ -2307,7 +2351,7 @@
       <c r="H69" s="44"/>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="57"/>
@@ -2318,7 +2362,7 @@
       <c r="H70" s="44"/>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="57"/>
@@ -2329,7 +2373,7 @@
       <c r="H71" s="44"/>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="57"/>
@@ -2340,7 +2384,7 @@
       <c r="H72" s="44"/>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="57"/>
@@ -2351,76 +2395,76 @@
       <c r="H73" s="44"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="C74" s="62"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="C75" s="62"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="C76" s="62"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="C77" s="62"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="C78" s="62"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="C79" s="62"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="C80" s="62"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="62"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="62"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="62"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="62"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="62"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="62"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="62"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="62"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="62"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="62"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="62"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="62"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="62"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="62"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="62"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="62"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="62"/>
     </row>
   </sheetData>
@@ -2431,14 +2475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -2450,14 +2494,14 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:166" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:166" ht="15.75">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -2472,7 +2516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:166">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -2484,7 +2528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:166" ht="15.75">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
@@ -2502,18 +2546,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:166" s="17" customFormat="1">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:166">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:166">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -2695,7 +2739,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:166">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -2718,7 +2762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:166">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -2741,7 +2785,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:166">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -2764,7 +2808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:166">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -2787,7 +2831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:166">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -2810,7 +2854,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:166">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
@@ -2824,7 +2868,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:166">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
@@ -2839,7 +2883,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:166">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
@@ -2854,7 +2898,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:166">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -2869,7 +2913,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
         <v>97</v>
       </c>
@@ -2886,7 +2930,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
@@ -2909,7 +2953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
         <v>98</v>
       </c>
@@ -2920,7 +2964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
@@ -2934,7 +2978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
         <v>60</v>
       </c>
@@ -2948,7 +2992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
         <v>98</v>
       </c>
@@ -2968,7 +3012,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
@@ -2979,7 +3023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
         <v>123</v>
       </c>
@@ -2996,7 +3040,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="20" t="s">
         <v>123</v>
       </c>
@@ -3013,7 +3057,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="20" t="s">
         <v>98</v>
       </c>
@@ -3024,7 +3068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="20" t="s">
         <v>50</v>
       </c>
@@ -3044,7 +3088,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
         <v>78</v>
       </c>
@@ -3064,7 +3108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
@@ -3087,7 +3131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -3110,7 +3154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -3121,7 +3165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
         <v>97</v>
       </c>
@@ -3138,7 +3182,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="20" t="s">
         <v>98</v>
       </c>
@@ -3149,7 +3193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="20" t="s">
         <v>64</v>
       </c>
@@ -3164,7 +3208,7 @@
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="20" t="s">
         <v>78</v>
       </c>
@@ -3182,7 +3226,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
@@ -3193,7 +3237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
@@ -3207,7 +3251,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
@@ -3218,7 +3262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>96</v>
       </c>
@@ -3235,7 +3279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="20" t="s">
         <v>60</v>
       </c>
@@ -3246,7 +3290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="20" t="s">
         <v>123</v>
       </c>
@@ -3269,7 +3313,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="20" t="s">
         <v>78</v>
       </c>
@@ -3280,7 +3324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="20" t="s">
         <v>63</v>
       </c>
@@ -3291,7 +3335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
@@ -3314,7 +3358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="20" t="s">
         <v>78</v>
       </c>
@@ -3325,7 +3369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="20" t="s">
         <v>98</v>
       </c>
@@ -3339,7 +3383,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="20" t="s">
         <v>98</v>
       </c>
@@ -3353,7 +3397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="20" t="s">
         <v>97</v>
       </c>
@@ -3376,7 +3420,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="20" t="s">
         <v>69</v>
       </c>
@@ -3390,7 +3434,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="20" t="s">
         <v>78</v>
       </c>
@@ -3413,7 +3457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="20" t="s">
         <v>123</v>
       </c>
@@ -3436,7 +3480,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="20" t="s">
         <v>96</v>
       </c>
@@ -3450,145 +3494,145 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
   </sheetData>
@@ -3599,14 +3643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -3614,7 +3658,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -3628,7 +3672,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3642,7 +3686,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3700,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3670,7 +3714,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3684,7 +3728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3696,7 +3740,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3708,7 +3752,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3720,7 +3764,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3732,7 +3776,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3744,7 +3788,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -3758,7 +3802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3772,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3786,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3800,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -3814,7 +3858,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3828,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3842,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -3856,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3870,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -3884,7 +3928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -3898,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -3910,7 +3954,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -3924,7 +3968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -3934,7 +3978,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -3944,7 +3988,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -3956,7 +4000,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -3970,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -3984,7 +4028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -3998,7 +4042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4010,7 +4054,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -4024,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4036,7 +4080,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -4050,7 +4094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4062,7 +4106,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -4076,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4090,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -4100,7 +4144,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4114,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4128,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -4142,7 +4186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -4156,7 +4200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4168,7 +4212,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -4186,14 +4230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -4201,7 +4245,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -4215,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4229,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4243,7 +4287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4257,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4271,7 +4315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4297,7 +4341,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4311,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -4325,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4339,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4353,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4367,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -4381,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4393,7 +4437,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4405,7 +4449,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4417,7 +4461,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -4431,7 +4475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4443,7 +4487,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4455,7 +4499,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4469,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4483,7 +4527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4497,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -4511,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -4523,7 +4567,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -4537,7 +4581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4551,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4565,7 +4609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -4579,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4593,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4607,7 +4651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4619,7 +4663,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4631,7 +4675,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -4645,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4657,7 +4701,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4671,7 +4715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4681,7 +4725,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4695,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4707,7 +4751,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4719,127 +4763,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -4849,14 +4893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -4865,17 +4909,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4884,7 +4928,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -4907,7 +4951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4924,7 +4968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4942,7 +4986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4960,7 +5004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -4977,7 +5021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4994,7 +5038,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -5011,7 +5055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5025,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5042,7 +5086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5059,7 +5103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5073,7 +5117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5084,7 +5128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5095,7 +5139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5112,7 +5156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5126,7 +5170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5143,7 +5187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5157,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -5174,7 +5218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -5191,7 +5235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -5208,7 +5252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -5225,7 +5269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5242,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5259,7 +5303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -5276,7 +5320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5293,7 +5337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -5310,7 +5354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -5327,7 +5371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -5344,7 +5388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -5361,7 +5405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -5373,7 +5417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -5390,7 +5434,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5404,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5421,7 +5465,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -5438,7 +5482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -5447,7 +5491,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -5455,7 +5499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -5466,7 +5510,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -5477,7 +5521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5488,7 +5532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -5497,7 +5541,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -5506,7 +5550,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -5515,7 +5559,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5524,7 +5568,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5533,7 +5577,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5542,7 +5586,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -5551,196 +5595,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="165" windowWidth="15120" windowHeight="11580"/>
@@ -17,7 +17,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sponsoren 2014'!$A$1:$A$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sponsoren NEU'!$A$1:$A$97</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -552,12 +552,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,9 +846,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,9 +886,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,9 +920,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,9 +955,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1129,14 +1131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="35" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="35" customWidth="1"/>
@@ -1150,14 +1152,14 @@
     <col min="10" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="36" t="s">
         <v>145</v>
       </c>
       <c r="C1" s="37"/>
       <c r="E1" s="39"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="35" t="s">
         <v>146</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="D3" s="45"/>
@@ -1186,14 +1188,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="48">
         <f>SUM(C8:C91)</f>
-        <v>4780</v>
+        <v>2390</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="44"/>
@@ -1204,18 +1206,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="35"/>
       <c r="I5" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H6" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>49</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
@@ -1263,7 +1265,7 @@
       </c>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>50</v>
       </c>
@@ -1288,7 +1290,7 @@
       </c>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>50</v>
       </c>
@@ -1311,7 +1313,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>50</v>
       </c>
@@ -1334,7 +1336,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>50</v>
       </c>
@@ -1355,7 +1357,7 @@
       </c>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>51</v>
       </c>
@@ -1370,7 +1372,7 @@
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1387,7 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1402,7 @@
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>51</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
     </row>
-    <row r="17" spans="1:9" ht="60">
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>97</v>
       </c>
@@ -1434,7 +1436,7 @@
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>97</v>
       </c>
@@ -1451,7 +1453,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>63</v>
       </c>
@@ -1468,7 +1470,7 @@
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>60</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>97</v>
       </c>
@@ -1523,7 +1525,7 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>148</v>
       </c>
@@ -1544,7 +1546,7 @@
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>123</v>
       </c>
@@ -1565,7 +1567,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>123</v>
       </c>
@@ -1586,7 +1588,7 @@
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>51</v>
       </c>
@@ -1601,7 +1603,7 @@
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>50</v>
       </c>
@@ -1626,7 +1628,7 @@
       </c>
       <c r="I27" s="44"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>50</v>
       </c>
@@ -1651,7 +1653,7 @@
       </c>
       <c r="I28" s="44"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>78</v>
       </c>
@@ -1668,7 +1670,7 @@
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>78</v>
       </c>
@@ -1687,7 +1689,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
@@ -1704,7 +1706,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>97</v>
       </c>
@@ -1719,7 +1721,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>96</v>
       </c>
@@ -1736,7 +1738,7 @@
       <c r="H33" s="61"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>78</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="H34" s="61"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1770,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44" t="s">
         <v>38</v>
@@ -1781,7 +1783,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>63</v>
       </c>
@@ -1800,7 +1802,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>96</v>
       </c>
@@ -1823,7 +1825,7 @@
       </c>
       <c r="I38" s="44"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>60</v>
       </c>
@@ -1838,7 +1840,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>51</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>78</v>
       </c>
@@ -1870,7 +1872,7 @@
       <c r="H41" s="44"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>63</v>
       </c>
@@ -1885,7 +1887,7 @@
       <c r="H42" s="44"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>78</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>78</v>
       </c>
@@ -1929,7 +1931,7 @@
       <c r="H44" s="44"/>
       <c r="I44" s="44"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>96</v>
       </c>
@@ -1952,7 +1954,7 @@
       </c>
       <c r="I45" s="44"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>97</v>
       </c>
@@ -1967,7 +1969,7 @@
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>97</v>
       </c>
@@ -1984,7 +1986,7 @@
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>69</v>
       </c>
@@ -2001,7 +2003,7 @@
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>78</v>
       </c>
@@ -2026,7 +2028,7 @@
       </c>
       <c r="I49" s="44"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>123</v>
       </c>
@@ -2047,7 +2049,7 @@
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>69</v>
       </c>
@@ -2064,7 +2066,7 @@
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>96</v>
       </c>
@@ -2087,7 +2089,7 @@
       </c>
       <c r="I52" s="44"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>51</v>
       </c>
@@ -2102,7 +2104,7 @@
       <c r="H53" s="44"/>
       <c r="I53" s="44"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +2119,7 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>51</v>
       </c>
@@ -2132,7 +2134,7 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>51</v>
       </c>
@@ -2147,7 +2149,7 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>148</v>
       </c>
@@ -2164,7 +2166,7 @@
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>50</v>
       </c>
@@ -2189,7 +2191,7 @@
       </c>
       <c r="I58" s="44"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>97</v>
       </c>
@@ -2210,7 +2212,7 @@
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>50</v>
       </c>
@@ -2235,7 +2237,7 @@
       </c>
       <c r="I60" s="44"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>50</v>
       </c>
@@ -2260,7 +2262,7 @@
       </c>
       <c r="I61" s="44"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="57"/>
@@ -2271,7 +2273,7 @@
       <c r="H62" s="44"/>
       <c r="I62" s="44"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="57"/>
@@ -2282,13 +2284,10 @@
       <c r="H63" s="44"/>
       <c r="I63" s="44"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
-      <c r="C64" s="57">
-        <f>SUM(C8:C63)</f>
-        <v>2390</v>
-      </c>
+      <c r="C64" s="57"/>
       <c r="D64" s="45"/>
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
@@ -2296,7 +2295,7 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="57"/>
@@ -2307,7 +2306,7 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="57"/>
@@ -2318,7 +2317,7 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="57"/>
@@ -2329,7 +2328,7 @@
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="57"/>
@@ -2340,7 +2339,7 @@
       <c r="H68" s="44"/>
       <c r="I68" s="44"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="57"/>
@@ -2351,7 +2350,7 @@
       <c r="H69" s="44"/>
       <c r="I69" s="44"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="57"/>
@@ -2362,7 +2361,7 @@
       <c r="H70" s="44"/>
       <c r="I70" s="44"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="57"/>
@@ -2373,7 +2372,7 @@
       <c r="H71" s="44"/>
       <c r="I71" s="44"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="57"/>
@@ -2384,7 +2383,7 @@
       <c r="H72" s="44"/>
       <c r="I72" s="44"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="57"/>
@@ -2395,76 +2394,76 @@
       <c r="H73" s="44"/>
       <c r="I73" s="44"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" s="62"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" s="62"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C76" s="62"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C77" s="62"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C78" s="62"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C79" s="62"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C80" s="62"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="62"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="62"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="62"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="62"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="62"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="62"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="62"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="62"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="62"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="62"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="62"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="62"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="62"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="62"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="62"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="62"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="62"/>
     </row>
   </sheetData>
@@ -2475,14 +2474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FJ99"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
@@ -2494,14 +2493,14 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="26.25">
+    <row r="1" spans="1:166" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:166" ht="15.75">
+    <row r="2" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="D3" s="24"/>
@@ -2528,7 +2527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:166" ht="15.75">
+    <row r="4" spans="1:166" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="25" t="s">
         <v>5</v>
@@ -2546,18 +2545,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="17" customFormat="1">
+    <row r="5" spans="1:166" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
       <c r="I5" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:166">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:166">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
@@ -2739,7 +2738,7 @@
       <c r="FI7" s="10"/>
       <c r="FJ7" s="10"/>
     </row>
-    <row r="8" spans="1:166">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:166">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:166">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:166">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:166">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:166">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:166">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
@@ -2883,7 +2882,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:166">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>51</v>
       </c>
@@ -2898,7 +2897,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:166">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
@@ -2913,7 +2912,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>97</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>97</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>69</v>
       </c>
@@ -2978,7 +2977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>60</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>98</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>123</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>123</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>98</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>50</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>78</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>78</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>78</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>78</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>98</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>64</v>
       </c>
@@ -3208,7 +3207,7 @@
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>78</v>
       </c>
@@ -3226,7 +3225,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>64</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>64</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>96</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>60</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>123</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>78</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>63</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>78</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>78</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>98</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>98</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>97</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>69</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>78</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>123</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>96</v>
       </c>
@@ -3494,145 +3493,145 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
   </sheetData>
@@ -3643,14 +3642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -3658,7 +3657,7 @@
     <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -3740,7 +3739,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3752,7 +3751,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -3764,7 +3763,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3776,7 +3775,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3788,7 +3787,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>50</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>78</v>
       </c>
@@ -3954,7 +3953,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>70</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>78</v>
       </c>
@@ -3978,7 +3977,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>65</v>
       </c>
@@ -3988,7 +3987,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>97</v>
       </c>
@@ -4000,7 +3999,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4054,7 +4053,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4080,7 +4079,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -4106,7 +4105,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -4144,7 +4143,7 @@
       <c r="C37" s="14"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4212,7 +4211,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -4230,14 +4229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -4245,7 +4244,7 @@
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -4341,7 +4340,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4437,7 +4436,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4449,7 +4448,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4461,7 +4460,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4487,7 +4486,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4499,7 +4498,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -4567,7 +4566,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4663,7 +4662,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4675,7 +4674,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4701,7 +4700,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4725,7 +4724,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4751,7 +4750,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4763,127 +4762,127 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="7"/>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="7"/>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="7"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="7"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" s="7"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" s="7"/>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="7"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="3:4">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="3:4">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="3:4">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="3:4">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
       <c r="D70" s="6"/>
     </row>
@@ -4893,14 +4892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
@@ -4909,17 +4908,17 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="5"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>70</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -5269,7 +5268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>40722</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>40731</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -5491,7 +5490,7 @@
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -5541,7 +5540,7 @@
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -5550,7 +5549,7 @@
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -5559,7 +5558,7 @@
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5568,7 +5567,7 @@
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5577,7 +5576,7 @@
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -5586,7 +5585,7 @@
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -5595,196 +5594,196 @@
       </c>
       <c r="C50" s="7"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56" s="7"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="7"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" s="7"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="7"/>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="7"/>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="3:3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="3:3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="3:3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="3:3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="3:3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="3:3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="3:3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="3:3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="3:3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="3:3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="3:3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="3:3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="3:3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="7"/>
     </row>
   </sheetData>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="175">
   <si>
     <t>Firma</t>
   </si>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C4" s="48">
         <f>SUM(C8:C91)</f>
-        <v>2390</v>
+        <v>2690</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="44"/>
@@ -1364,11 +1364,19 @@
       <c r="B13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="57">
+        <v>100</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>156</v>
+      </c>
       <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
     </row>
@@ -1379,11 +1387,19 @@
       <c r="B14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="55"/>
+      <c r="C14" s="57">
+        <v>100</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>156</v>
+      </c>
       <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
     </row>
@@ -1394,11 +1410,17 @@
       <c r="B15" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="57">
+        <v>50</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>102</v>
+      </c>
       <c r="E15" s="55"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="H15" s="44"/>
       <c r="I15" s="44"/>
     </row>
@@ -1409,7 +1431,9 @@
       <c r="B16" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="57" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" s="57"/>
       <c r="E16" s="55"/>
       <c r="F16" s="44"/>
@@ -1595,7 +1619,9 @@
       <c r="B26" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="D26" s="45"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
@@ -1713,7 +1739,9 @@
       <c r="B32" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="D32" s="45"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -1762,7 +1790,9 @@
       <c r="B35" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="D35" s="45"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
@@ -1847,7 +1877,9 @@
       <c r="B40" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="D40" s="45"/>
       <c r="E40" s="44"/>
       <c r="F40" s="44"/>
@@ -1961,7 +1993,9 @@
       <c r="B46" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="57" t="s">
+        <v>142</v>
+      </c>
       <c r="D46" s="45"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -2096,7 +2130,9 @@
       <c r="B53" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="57"/>
+      <c r="C53" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="D53" s="45"/>
       <c r="E53" s="44"/>
       <c r="F53" s="44"/>
@@ -2111,8 +2147,12 @@
       <c r="B54" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="45"/>
+      <c r="C54" s="57">
+        <v>50</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>112</v>
+      </c>
       <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
@@ -2126,7 +2166,9 @@
       <c r="B55" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="D55" s="45"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
@@ -2141,7 +2183,9 @@
       <c r="B56" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="57"/>
+      <c r="C56" s="57" t="s">
+        <v>34</v>
+      </c>
       <c r="D56" s="45"/>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="177">
   <si>
     <t>Firma</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>Fotos vom aufgehängen Transparent notwendig</t>
+  </si>
+  <si>
+    <t>KCS KFZ Center (Furth)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -823,6 +829,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1134,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,10 +1248,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="54">
@@ -1266,10 +1273,10 @@
       <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="54">
@@ -1291,10 +1298,10 @@
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="56">
@@ -1314,10 +1321,10 @@
       <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="54">
@@ -1337,10 +1344,10 @@
       <c r="I11" s="44"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="54">
@@ -1630,10 +1637,10 @@
       <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="54">
@@ -1655,10 +1662,10 @@
       <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="63" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="54">
@@ -1687,7 +1694,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="44"/>
@@ -1800,7 +1807,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44" t="s">
         <v>38</v>
@@ -1895,7 +1902,7 @@
         <v>157</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="44"/>
@@ -1920,10 +1927,10 @@
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C43" s="54">
@@ -2038,11 +2045,11 @@
       <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="44" t="s">
-        <v>132</v>
+      <c r="B49" s="63" t="s">
+        <v>175</v>
       </c>
       <c r="C49" s="56">
         <v>150</v>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,10 +1365,10 @@
       <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="57">
@@ -1388,10 +1388,10 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="57">
@@ -1411,10 +1411,10 @@
       <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="63" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="57">

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="177">
   <si>
     <t>Firma</t>
   </si>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C4" s="48">
         <f>SUM(C8:C91)</f>
-        <v>2690</v>
+        <v>2740</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="44"/>
@@ -1449,10 +1449,10 @@
       <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="58" t="s">
@@ -1468,10 +1468,10 @@
       <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="57">
@@ -1519,10 +1519,10 @@
       <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="57">
@@ -1538,10 +1538,10 @@
       <c r="I21" s="44"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="56">
@@ -1557,10 +1557,10 @@
       <c r="I22" s="44"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -1578,10 +1578,10 @@
       <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="56">
@@ -1599,10 +1599,10 @@
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="56">
@@ -1620,17 +1620,21 @@
       <c r="I25" s="44"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="57">
+        <v>50</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="44"/>
+      <c r="E26" s="44" t="s">
+        <v>142</v>
+      </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -1807,7 +1811,7 @@
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="44" t="s">
         <v>38</v>
@@ -1821,10 +1825,10 @@
       <c r="I36" s="44"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="63" t="s">
         <v>124</v>
       </c>
       <c r="C37" s="56">
@@ -1840,10 +1844,10 @@
       <c r="I37" s="44"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="54">
@@ -1971,10 +1975,10 @@
       <c r="I44" s="44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="63" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="57">
@@ -2011,10 +2015,10 @@
       <c r="I46" s="44"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="56">
@@ -2028,10 +2032,10 @@
       <c r="I47" s="44"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="56">
@@ -2070,10 +2074,10 @@
       <c r="I49" s="44"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="63" t="s">
         <v>136</v>
       </c>
       <c r="C50" s="57">
@@ -2091,10 +2095,10 @@
       <c r="I50" s="44"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="63" t="s">
         <v>139</v>
       </c>
       <c r="C51" s="56">
@@ -2108,10 +2112,10 @@
       <c r="I51" s="44"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="63" t="s">
         <v>149</v>
       </c>
       <c r="C52" s="54">
@@ -2148,10 +2152,10 @@
       <c r="I53" s="44"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="63" t="s">
         <v>151</v>
       </c>
       <c r="C54" s="57">
@@ -2218,10 +2222,10 @@
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="63" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="54">
@@ -2243,10 +2247,10 @@
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="63" t="s">
         <v>163</v>
       </c>
       <c r="C59" s="57">
@@ -2264,10 +2268,10 @@
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="63" t="s">
         <v>164</v>
       </c>
       <c r="C60" s="54">
@@ -2289,10 +2293,10 @@
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="44" t="s">
+      <c r="A61" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="63" t="s">
         <v>167</v>
       </c>
       <c r="C61" s="54">

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="179">
   <si>
     <t>Firma</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Fam. Holzweber</t>
+  </si>
+  <si>
+    <t>3x 25er Faß Bier</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,10 +2324,18 @@
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="45"/>
+      <c r="A62" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>112</v>
+      </c>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C4" s="48">
         <f>SUM(C8:C91)</f>
-        <v>2740</v>
+        <v>2840</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="44"/>
@@ -1801,19 +1801,21 @@
       <c r="I34" s="44"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="57" t="s">
-        <v>142</v>
+      <c r="C35" s="56">
+        <v>100</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
+      <c r="G35" s="44" t="s">
+        <v>170</v>
+      </c>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
     </row>

--- a/2015/Sponsoring/Liste der Sponsoren.xlsx
+++ b/2015/Sponsoring/Liste der Sponsoren.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="181">
   <si>
     <t>Firma</t>
   </si>
@@ -558,7 +558,13 @@
     <t>Fam. Holzweber</t>
   </si>
   <si>
-    <t>3x 25er Faß Bier</t>
+    <t>noch offen</t>
+  </si>
+  <si>
+    <t>1x 50er Faß Bier</t>
+  </si>
+  <si>
+    <t>&lt;-- Betrag ws wie im Vorjahr € 150</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1316,7 @@
       <c r="B10" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="54">
         <v>100</v>
       </c>
       <c r="D10" s="45" t="s">
@@ -1757,9 +1763,11 @@
         <v>31</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="45"/>
+        <v>178</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>180</v>
+      </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -1774,7 +1782,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="44"/>
@@ -1807,7 +1815,7 @@
       <c r="B35" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="54">
         <v>100</v>
       </c>
       <c r="D35" s="45"/>
@@ -2333,7 +2341,7 @@
         <v>177</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>112</v>
